--- a/api_unittest/data/testcase1.xlsx
+++ b/api_unittest/data/testcase1.xlsx
@@ -688,12 +688,12 @@
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
         </is>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="I4" s="3" t="n"/>
